--- a/Subj/OPD/Labs/Lab3/Программа.xlsx
+++ b/Subj/OPD/Labs/Lab3/Программа.xlsx
@@ -34,13 +34,13 @@
     <t xml:space="preserve">Комментарии</t>
   </si>
   <si>
-    <t xml:space="preserve">1 Цикл (M[0])</t>
+    <t xml:space="preserve">1 Цикл (M[2])</t>
   </si>
   <si>
     <t xml:space="preserve">2 Цикл (M[1])</t>
   </si>
   <si>
-    <t xml:space="preserve">3 Цикл (M[2])</t>
+    <t xml:space="preserve">3 Цикл (M[0])</t>
   </si>
   <si>
     <t xml:space="preserve">3F8</t>
@@ -649,17 +649,7 @@
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> → AC
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">AC: 0000 0100 0001 0001 (</t>
+AC: 0000 0100 0001 0001 (</t>
     </r>
     <r>
       <rPr>
@@ -917,7 +907,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">MEM(3F9) - 1)</t>
+      <t xml:space="preserve">IP — 12)</t>
     </r>
     <r>
       <rPr>
@@ -928,6 +918,10 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> → AC
+MEM(405 — 12) → AC
+MEM(3F9) → AC
+0x411 → AC
+0x411 — 0x1 → AC
 </t>
     </r>
     <r>
@@ -960,27 +954,7 @@
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve">0x53FB → AC
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">AC: 0101 0011 1111 1011 (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">0x53FB</t>
+AC: 0101 0011 1111 1011 (0x53FB</t>
     </r>
     <r>
       <rPr>
@@ -1117,17 +1091,7 @@
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve">0000 → AC
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">AC: 0000 0000 0000 0000
+AC: 0000 0000 0000 0000
 m(0x</t>
     </r>
     <r>
@@ -1244,17 +1208,7 @@
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve">8409 → AC
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">AC: 1000 0100 0000 1001 (0x8490)
+AC: 1000 0100 0000 1001 (0x8490)
 m(0x</t>
     </r>
     <r>
@@ -1358,17 +1312,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">AC: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">53FB</t>
+      <t xml:space="preserve">AC: 53FB</t>
     </r>
     <r>
       <rPr>
@@ -1391,17 +1335,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">AC: 0010 1001 1111 1101 (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">0x</t>
+      <t xml:space="preserve">AC: 0010 1001 1111 1101 (0x</t>
     </r>
     <r>
       <rPr>
@@ -2094,17 +2028,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">AC: 0101 0011 1111 1011 (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">0x53FB</t>
+      <t xml:space="preserve">AC: 0101 0011 1111 1011 (0x53FB</t>
     </r>
     <r>
       <rPr>
@@ -2507,7 +2431,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2669,13 +2593,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2685,13 +2602,6 @@
       <sz val="12"/>
       <name val="Aptos;Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -2763,7 +2673,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2784,7 +2694,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2800,7 +2710,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2808,10 +2718,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2832,7 +2738,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2856,14 +2762,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2872,18 +2770,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2896,27 +2786,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2924,19 +2806,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2944,18 +2818,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2964,7 +2826,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3227,15 +3089,15 @@
   </sheetPr>
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="22.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="22.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="54.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="3" width="54.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="13"/>
@@ -3272,567 +3134,557 @@
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="0"/>
-      <c r="H2" s="0"/>
-      <c r="I2" s="0"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="14"/>
+      <c r="G2" s="3"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="13"/>
     </row>
     <row r="3" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="14"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="57.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="20"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="14"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="57.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="20"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="14"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="57.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="20"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="19"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="57.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="20"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="26"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="19"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="23"/>
     </row>
     <row r="8" customFormat="false" ht="57.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="20"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="26"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="19"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="23"/>
     </row>
     <row r="9" customFormat="false" ht="40.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="20"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="26"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="19"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="23"/>
     </row>
     <row r="10" customFormat="false" ht="53.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="26"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="23"/>
     </row>
     <row r="11" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
       <c r="K11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="66.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="32"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="27"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="82.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="27"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="35"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="16"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="30"/>
     </row>
     <row r="14" customFormat="false" ht="80.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="38"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="35"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="31"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="30"/>
     </row>
-    <row r="15" customFormat="false" ht="93.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15" t="s">
+    <row r="15" customFormat="false" ht="143.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="E15" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="37" t="s">
+      <c r="F15" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="0"/>
-      <c r="J15" s="39"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="18"/>
+      <c r="J15" s="32"/>
     </row>
     <row r="16" customFormat="false" ht="94.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="40" t="s">
+      <c r="E16" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="F16" s="40" t="s">
+      <c r="F16" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="39"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="0"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="33"/>
     </row>
     <row r="17" customFormat="false" ht="65.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="43" t="s">
+      <c r="E17" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="G17" s="44"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="0"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="33"/>
     </row>
     <row r="18" customFormat="false" ht="91.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="45"/>
-      <c r="E18" s="46" t="s">
+      <c r="D18" s="15"/>
+      <c r="E18" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="46"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="0"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="33"/>
     </row>
     <row r="19" customFormat="false" ht="52.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="47"/>
-      <c r="E19" s="27" t="s">
+      <c r="D19" s="24"/>
+      <c r="E19" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="0"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="33"/>
     </row>
     <row r="20" customFormat="false" ht="39.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="D20" s="47"/>
-      <c r="E20" s="27" t="s">
+      <c r="D20" s="24"/>
+      <c r="E20" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="0"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="33"/>
     </row>
     <row r="21" customFormat="false" ht="26.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="D21" s="36"/>
-      <c r="E21" s="27" t="s">
+      <c r="D21" s="26"/>
+      <c r="E21" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="F21" s="27"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="0"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="33"/>
     </row>
     <row r="22" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="E22" s="29" t="s">
+      <c r="E22" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="F22" s="29" t="s">
+      <c r="F22" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="G22" s="44"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="0"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="33"/>
     </row>
     <row r="23" customFormat="false" ht="26.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D23" s="43" t="s">
+      <c r="D23" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="E23" s="43" t="s">
+      <c r="E23" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="F23" s="43" t="s">
+      <c r="F23" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="G23" s="48"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="49" t="s">
+      <c r="D24" s="15"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="G24" s="0"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="D25" s="50" t="s">
+      <c r="D25" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="D26" s="50" t="s">
+      <c r="D26" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="D27" s="50" t="s">
+      <c r="D27" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D28" s="51"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/Subj/OPD/Labs/Lab3/Программа.xlsx
+++ b/Subj/OPD/Labs/Lab3/Программа.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="113">
   <si>
     <t xml:space="preserve">Адрес </t>
   </si>
@@ -1450,7 +1450,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">AC: 0</t>
+      <t xml:space="preserve">С</t>
     </r>
     <r>
       <rPr>
@@ -1460,8 +1460,30 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> → 0
-AC0 → C
+      <t xml:space="preserve"> → AC15
+1 → AC15
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">AC: 0000 → 8000
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos;Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">AC0 → C
 0 → C
 </t>
     </r>
@@ -1473,7 +1495,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">AC: 0000 0000 0000 0000
+      <t xml:space="preserve">AC: 1000 0000 0000 0000
 m(0x</t>
     </r>
     <r>
@@ -1799,7 +1821,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">AC: 0</t>
+      <t xml:space="preserve">AC: 8000</t>
     </r>
     <r>
       <rPr>
@@ -1809,9 +1831,9 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> → 0
+      <t xml:space="preserve"> → 0000
 C → AC0 ; AC15 → C
-0 → AC0 ; 0 → C
+0 → AC0 ; 1 → C
 </t>
     </r>
     <r>
@@ -1961,7 +1983,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> если (N⊕V=0), иначе IP + 1
+      <t xml:space="preserve"> если больше или равно(N⊕V=0), иначе IP + 1
 </t>
     </r>
     <r>
@@ -2363,8 +2385,12 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">: 0000 0000 0000 0000 (0x7FFF) 
-</t>
+      <t xml:space="preserve">: 0000 0000 0000 0000 (0x7FFF)
+DR — 1 → BR 
+0 — 1 → BR
+FFFF → BR
+IP + 1 → IP
+IP: 40D</t>
     </r>
   </si>
   <si>
@@ -3089,8 +3115,8 @@
   </sheetPr>
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3444,7 +3470,7 @@
       <c r="H15" s="18"/>
       <c r="J15" s="32"/>
     </row>
-    <row r="16" customFormat="false" ht="94.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="116.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="14" t="s">
         <v>61</v>
       </c>
@@ -3466,7 +3492,7 @@
       <c r="G16" s="32"/>
       <c r="H16" s="33"/>
     </row>
-    <row r="17" customFormat="false" ht="65.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="65.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="14" t="s">
         <v>67</v>
       </c>
@@ -3524,7 +3550,7 @@
       <c r="G19" s="35"/>
       <c r="H19" s="33"/>
     </row>
-    <row r="20" customFormat="false" ht="39.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="52.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="14" t="s">
         <v>81</v>
       </c>
@@ -3560,7 +3586,7 @@
       <c r="G21" s="35"/>
       <c r="H21" s="33"/>
     </row>
-    <row r="22" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="131.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="14" t="s">
         <v>89</v>
       </c>
@@ -3598,9 +3624,7 @@
       <c r="E23" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="F23" s="25" t="s">
-        <v>98</v>
-      </c>
+      <c r="F23" s="25"/>
       <c r="G23" s="36"/>
       <c r="H23" s="33"/>
       <c r="I23" s="33"/>

--- a/Subj/OPD/Labs/Lab3/Программа.xlsx
+++ b/Subj/OPD/Labs/Lab3/Программа.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="113">
   <si>
     <t xml:space="preserve">Адрес </t>
   </si>
@@ -3115,8 +3115,8 @@
   </sheetPr>
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3547,7 +3547,9 @@
         <v>80</v>
       </c>
       <c r="F19" s="16"/>
-      <c r="G19" s="35"/>
+      <c r="G19" s="35" t="s">
+        <v>39</v>
+      </c>
       <c r="H19" s="33"/>
     </row>
     <row r="20" customFormat="false" ht="52.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Subj/OPD/Labs/Lab3/Программа.xlsx
+++ b/Subj/OPD/Labs/Lab3/Программа.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ipka23/Desktop/ITMO/Subj/OPD/Labs/Lab3/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56118B1F-5164-FD4A-9DEA-DE2444BCCB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,31 +30,31 @@
     <t xml:space="preserve">Адрес </t>
   </si>
   <si>
-    <t xml:space="preserve">Данные</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мнемоника</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Комментарии</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 Цикл (M[2])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 Цикл (M[1])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 Цикл (M[0])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3F8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">040E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a</t>
+    <t>Данные</t>
+  </si>
+  <si>
+    <t>Мнемоника</t>
+  </si>
+  <si>
+    <t>Комментарии</t>
+  </si>
+  <si>
+    <t>1 Цикл (M[2])</t>
+  </si>
+  <si>
+    <t>2 Цикл (M[1])</t>
+  </si>
+  <si>
+    <t>3 Цикл (M[0])</t>
+  </si>
+  <si>
+    <t>3F8</t>
+  </si>
+  <si>
+    <t>040E</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
   <si>
     <r>
@@ -60,7 +65,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Адрес начала массива (</t>
+      <t>Адрес начала массива (</t>
     </r>
     <r>
       <rPr>
@@ -70,29 +75,29 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">первого элемента)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">3F9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m</t>
+      <t>первого элемента)</t>
+    </r>
+  </si>
+  <si>
+    <t>3F9</t>
+  </si>
+  <si>
+    <t>A000</t>
+  </si>
+  <si>
+    <t>m</t>
   </si>
   <si>
     <t xml:space="preserve">Указатель на текущий элемент массива </t>
   </si>
   <si>
-    <t xml:space="preserve">3FA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n</t>
+    <t>3FA</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
   <si>
     <r>
@@ -113,29 +118,29 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(3)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">3FB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r</t>
+      <t>(3)</t>
+    </r>
+  </si>
+  <si>
+    <t>3FB</t>
+  </si>
+  <si>
+    <t>E000</t>
+  </si>
+  <si>
+    <t>r</t>
   </si>
   <si>
     <t xml:space="preserve">Результат </t>
   </si>
   <si>
-    <t xml:space="preserve">3FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AF80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LD #80</t>
+    <t>3FC</t>
+  </si>
+  <si>
+    <t>AF80</t>
+  </si>
+  <si>
+    <t>LD #80</t>
   </si>
   <si>
     <r>
@@ -155,7 +160,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">0x</t>
+      <t>0x</t>
     </r>
     <r>
       <rPr>
@@ -174,7 +179,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">→</t>
+      <t>→</t>
     </r>
     <r>
       <rPr>
@@ -193,17 +198,17 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">AC: 1111 1111 1000 0000 (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">0x</t>
+      <t>AC: 1111 1111 1000 0000 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>0x</t>
     </r>
     <r>
       <rPr>
@@ -212,14 +217,14 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">FF80)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">3FD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0740</t>
+      <t>FF80)</t>
+    </r>
+  </si>
+  <si>
+    <t>3FD</t>
+  </si>
+  <si>
+    <t>0740</t>
   </si>
   <si>
     <t xml:space="preserve">DEC </t>
@@ -244,17 +249,17 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">AC: 1111 1111 0111 1111 (0xFF7F)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">3FE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0680</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SWAB</t>
+      <t>AC: 1111 1111 0111 1111 (0xFF7F)</t>
+    </r>
+  </si>
+  <si>
+    <t>3FE</t>
+  </si>
+  <si>
+    <t>0680</t>
+  </si>
+  <si>
+    <t>SWAB</t>
   </si>
   <si>
     <r>
@@ -286,14 +291,14 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">0111 1111 1111 1111 (0x7FFF) — максимальное положительное число в 16-р-й сетке</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">3FF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EEFB</t>
+      <t>0111 1111 1111 1111 (0x7FFF) — максимальное положительное число в 16-р-й сетке</t>
+    </r>
+  </si>
+  <si>
+    <t>3FF</t>
+  </si>
+  <si>
+    <t>EEFB</t>
   </si>
   <si>
     <r>
@@ -314,7 +319,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">(IP — 5)</t>
+      <t>(IP — 5)</t>
     </r>
   </si>
   <si>
@@ -338,7 +343,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">AC: 0111 1111 1111 1111 (0x7FFF) 
+      <t>AC: 0111 1111 1111 1111 (0x7FFF) 
 r(0x</t>
     </r>
     <r>
@@ -349,7 +354,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">3FB)</t>
+      <t>3FB)</t>
     </r>
     <r>
       <rPr>
@@ -363,13 +368,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AF03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LD F03</t>
+    <t>400</t>
+  </si>
+  <si>
+    <t>AF03</t>
+  </si>
+  <si>
+    <t>LD F03</t>
   </si>
   <si>
     <r>
@@ -390,7 +395,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">→</t>
+      <t>→</t>
     </r>
     <r>
       <rPr>
@@ -412,7 +417,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">3FB)</t>
+      <t>3FB)</t>
     </r>
     <r>
       <rPr>
@@ -426,10 +431,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EEF8</t>
+    <t>401</t>
+  </si>
+  <si>
+    <t>EEF8</t>
   </si>
   <si>
     <r>
@@ -450,7 +455,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">(IP — 8)</t>
+      <t>(IP — 8)</t>
     </r>
   </si>
   <si>
@@ -494,17 +499,17 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">n(0x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">3FA)</t>
+      <t>n(0x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>3FA)</t>
     </r>
     <r>
       <rPr>
@@ -535,17 +540,17 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">r(0x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">3FB)</t>
+      <t>r(0x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>3FB)</t>
     </r>
     <r>
       <rPr>
@@ -559,13 +564,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4EF5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADD (IP — 11)</t>
+    <t>402</t>
+  </si>
+  <si>
+    <t>4EF5</t>
+  </si>
+  <si>
+    <t>ADD (IP — 11)</t>
   </si>
   <si>
     <r>
@@ -576,17 +581,17 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">AC + 0x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">40E</t>
+      <t>AC + 0x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>40E</t>
     </r>
     <r>
       <rPr>
@@ -607,17 +612,17 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">0x3 + 0x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">40E</t>
+      <t>0x3 + 0x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>40E</t>
     </r>
     <r>
       <rPr>
@@ -638,7 +643,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">0x411</t>
+      <t>0x411</t>
     </r>
     <r>
       <rPr>
@@ -659,7 +664,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">0x411)</t>
+      <t>0x411)</t>
     </r>
     <r>
       <rPr>
@@ -680,17 +685,17 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">3FA)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">: 0000 0000 0000 0011 (0x3) 
+      <t>3FA)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: 0000 0000 0000 0011 (0x3) 
 r(0x</t>
     </r>
     <r>
@@ -701,7 +706,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">3FB)</t>
+      <t>3FB)</t>
     </r>
     <r>
       <rPr>
@@ -715,10 +720,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EEF5</t>
+    <t>403</t>
+  </si>
+  <si>
+    <t>EEF5</t>
   </si>
   <si>
     <r>
@@ -739,7 +744,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">(IP — 11)</t>
+      <t>(IP — 11)</t>
     </r>
   </si>
   <si>
@@ -773,7 +778,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">AC: 0000 0100 0001 0001 (</t>
+      <t>AC: 0000 0100 0001 0001 (</t>
     </r>
     <r>
       <rPr>
@@ -783,7 +788,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">0x411)</t>
+      <t>0x411)</t>
     </r>
     <r>
       <rPr>
@@ -804,17 +809,17 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">3F9)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">: 0000 0100 0001 0001 (</t>
+      <t>3F9)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: 0000 0100 0001 0001 (</t>
     </r>
     <r>
       <rPr>
@@ -824,7 +829,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">0x411)</t>
+      <t>0x411)</t>
     </r>
     <r>
       <rPr>
@@ -845,17 +850,17 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">3FA)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">: 0000 0000 0000 0011 (0x3) 
+      <t>3FA)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: 0000 0000 0000 0011 (0x3) 
 r(0x</t>
     </r>
     <r>
@@ -866,7 +871,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">3FB)</t>
+      <t>3FB)</t>
     </r>
     <r>
       <rPr>
@@ -880,13 +885,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABF4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LD -(IP — 12)</t>
+    <t>404</t>
+  </si>
+  <si>
+    <t>ABF4</t>
+  </si>
+  <si>
+    <t>LD -(IP — 12)</t>
   </si>
   <si>
     <r>
@@ -897,17 +902,17 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">MEM(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">IP — 12)</t>
+      <t>MEM(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>IP — 12)</t>
     </r>
     <r>
       <rPr>
@@ -953,7 +958,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">0x53FB → AC
+      <t>0x53FB → AC
 AC: 0101 0011 1111 1011 (0x53FB</t>
     </r>
     <r>
@@ -964,7 +969,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">)</t>
+      <t>)</t>
     </r>
     <r>
       <rPr>
@@ -985,17 +990,17 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">3F9)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">: 0000 0100 0001 0001 (</t>
+      <t>3F9)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: 0000 0100 0001 0001 (</t>
     </r>
     <r>
       <rPr>
@@ -1005,7 +1010,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">0x410)</t>
+      <t>0x410)</t>
     </r>
     <r>
       <rPr>
@@ -1026,17 +1031,17 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">3FA)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">: 0000 0000 0000 0011 (0x3) 
+      <t>3FA)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: 0000 0000 0000 0011 (0x3) 
 r(0x</t>
     </r>
     <r>
@@ -1047,7 +1052,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">3FB)</t>
+      <t>3FB)</t>
     </r>
     <r>
       <rPr>
@@ -1090,7 +1095,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">0000 → AC
+      <t>0000 → AC
 AC: 0000 0000 0000 0000
 m(0x</t>
     </r>
@@ -1102,17 +1107,17 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">3F9)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">: 0000 0100 0000 1001 (</t>
+      <t>3F9)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: 0000 0100 0000 1001 (</t>
     </r>
     <r>
       <rPr>
@@ -1122,7 +1127,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">0x40F)</t>
+      <t>0x40F)</t>
     </r>
     <r>
       <rPr>
@@ -1143,17 +1148,17 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">3FA)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">: 0000 0000 0000 0010 (0x2) 
+      <t>3FA)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: 0000 0000 0000 0010 (0x2) 
 r(0x</t>
     </r>
     <r>
@@ -1164,7 +1169,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">3FB)</t>
+      <t>3FB)</t>
     </r>
     <r>
       <rPr>
@@ -1207,7 +1212,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">8409 → AC
+      <t>8409 → AC
 AC: 1000 0100 0000 1001 (0x8490)
 m(0x</t>
     </r>
@@ -1219,17 +1224,17 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">3F9)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">: 0000 0100 0000 1001 (</t>
+      <t>3F9)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: 0000 0100 0000 1001 (</t>
     </r>
     <r>
       <rPr>
@@ -1239,7 +1244,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">0x40E)</t>
+      <t>0x40E)</t>
     </r>
     <r>
       <rPr>
@@ -1260,17 +1265,17 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">3FA)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">: 0000 0000 0000 0010 (0x1) 
+      <t>3FA)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: 0000 0000 0000 0010 (0x1) 
 r(0x</t>
     </r>
     <r>
@@ -1281,7 +1286,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">3FB)</t>
+      <t>3FB)</t>
     </r>
     <r>
       <rPr>
@@ -1295,24 +1300,24 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0480</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROR</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">AC: 53FB</t>
+    <t>405</t>
+  </si>
+  <si>
+    <t>0480</t>
+  </si>
+  <si>
+    <t>ROR</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>AC: 53FB</t>
     </r>
     <r>
       <rPr>
@@ -1335,7 +1340,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">AC: 0010 1001 1111 1101 (0x</t>
+      <t>AC: 0010 1001 1111 1101 (0x</t>
     </r>
     <r>
       <rPr>
@@ -1345,7 +1350,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">29FD)</t>
+      <t>29FD)</t>
     </r>
     <r>
       <rPr>
@@ -1366,17 +1371,17 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">3F9)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">: 0000 0100 0001 0001 (</t>
+      <t>3F9)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: 0000 0100 0001 0001 (</t>
     </r>
     <r>
       <rPr>
@@ -1386,7 +1391,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">0x410)</t>
+      <t>0x410)</t>
     </r>
     <r>
       <rPr>
@@ -1407,17 +1412,17 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">3FA)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">: 0000 0000 0000 0011 (0x3) 
+      <t>3FA)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: 0000 0000 0000 0011 (0x3) 
 r(0x</t>
     </r>
     <r>
@@ -1428,7 +1433,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">3FB)</t>
+      <t>3FB)</t>
     </r>
     <r>
       <rPr>
@@ -1450,7 +1455,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">С</t>
+      <t>С</t>
     </r>
     <r>
       <rPr>
@@ -1495,7 +1500,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">AC: 1000 0000 0000 0000
+      <t>AC: 1000 0000 0000 0000
 m(0x</t>
     </r>
     <r>
@@ -1506,17 +1511,17 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">3F9)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">: 0000 0100 0000 1001 (</t>
+      <t>3F9)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: 0000 0100 0000 1001 (</t>
     </r>
     <r>
       <rPr>
@@ -1526,7 +1531,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">0x40F)</t>
+      <t>0x40F)</t>
     </r>
     <r>
       <rPr>
@@ -1547,17 +1552,17 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">3FA)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">: 0000 0000 0000 0010 (0x2) 
+      <t>3FA)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: 0000 0000 0000 0010 (0x2) 
 r(0x</t>
     </r>
     <r>
@@ -1568,7 +1573,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">3FB)</t>
+      <t>3FB)</t>
     </r>
     <r>
       <rPr>
@@ -1590,7 +1595,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">AC: 8409</t>
+      <t>AC: 8409</t>
     </r>
     <r>
       <rPr>
@@ -1612,7 +1617,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">1</t>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -1633,7 +1638,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">AC: 0100 0010 0000 0100 (0x</t>
+      <t>AC: 0100 0010 0000 0100 (0x</t>
     </r>
     <r>
       <rPr>
@@ -1643,17 +1648,17 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">4204</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">)
+      <t>4204</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)
 m(0x</t>
     </r>
     <r>
@@ -1664,17 +1669,17 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">3F9)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">: 0000 0100 0000 1001 (</t>
+      <t>3F9)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: 0000 0100 0000 1001 (</t>
     </r>
     <r>
       <rPr>
@@ -1684,7 +1689,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">0x40E)</t>
+      <t>0x40E)</t>
     </r>
     <r>
       <rPr>
@@ -1705,17 +1710,17 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">3FA)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">: 0000 0000 0000 0010 (0x1) 
+      <t>3FA)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: 0000 0000 0000 0010 (0x1) 
 r(0x</t>
     </r>
     <r>
@@ -1726,7 +1731,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">3FB)</t>
+      <t>3FB)</t>
     </r>
     <r>
       <rPr>
@@ -1740,34 +1745,34 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BCS (IP + 4)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Переход в 0x40B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">, если
+    <t>406</t>
+  </si>
+  <si>
+    <t>F404</t>
+  </si>
+  <si>
+    <t>BCS (IP + 4)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Переход в 0x40B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, если
 C==1, иначе IP + 1
 C = 1
 IP + 4 → IP
@@ -1775,7 +1780,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">C = 0
+    <t>C = 0
 IP: 407</t>
   </si>
   <si>
@@ -1798,30 +1803,30 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">C==1 
+      <t>C==1 
 IP + 4 → IP
 IP: 40B</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROL</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">AC: 8000</t>
+    <t>407</t>
+  </si>
+  <si>
+    <t>0400</t>
+  </si>
+  <si>
+    <t>ROL</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>AC: 8000</t>
     </r>
     <r>
       <rPr>
@@ -1844,7 +1849,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">AC: 0000 0000 0000 0000
+      <t>AC: 0000 0000 0000 0000
 m(0x</t>
     </r>
     <r>
@@ -1855,17 +1860,17 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">3F9)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">: 0000 0100 0000 1001 (</t>
+      <t>3F9)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: 0000 0100 0000 1001 (</t>
     </r>
     <r>
       <rPr>
@@ -1875,7 +1880,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">0x40F)</t>
+      <t>0x40F)</t>
     </r>
     <r>
       <rPr>
@@ -1896,17 +1901,17 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">3FA)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">: 0000 0000 0000 0010 (0x2) 
+      <t>3FA)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: 0000 0000 0000 0010 (0x2) 
 r(0x</t>
     </r>
     <r>
@@ -1917,7 +1922,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">3FB)</t>
+      <t>3FB)</t>
     </r>
     <r>
       <rPr>
@@ -1931,28 +1936,28 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7EF2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMP (IP — 14)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Установить флаги по результату 
+    <t>408</t>
+  </si>
+  <si>
+    <t>7EF2</t>
+  </si>
+  <si>
+    <t>CMP (IP — 14)</t>
+  </si>
+  <si>
+    <t>Установить флаги по результату 
 AC — MEM(3FB)
 0 — 0x7FFF
 NZVC = 1001</t>
   </si>
   <si>
-    <t xml:space="preserve">409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BGE (IP + 1)</t>
+    <t>409</t>
+  </si>
+  <si>
+    <t>F901</t>
+  </si>
+  <si>
+    <t>BGE (IP + 1)</t>
   </si>
   <si>
     <r>
@@ -1963,17 +1968,17 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Переход в 0x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">40B</t>
+      <t>Переход в 0x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>40B</t>
     </r>
     <r>
       <rPr>
@@ -2005,30 +2010,30 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">IP + 1 → IP</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">40A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EEF0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ST (IP — 16)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AС → 3FB
+      <t>IP + 1 → IP</t>
+    </r>
+  </si>
+  <si>
+    <t>40A</t>
+  </si>
+  <si>
+    <t>EEF0</t>
+  </si>
+  <si>
+    <t>ST (IP — 16)</t>
+  </si>
+  <si>
+    <t>AС → 3FB
 0 → 3FB</t>
   </si>
   <si>
-    <t xml:space="preserve">40B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83FA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOOP 0x3FA</t>
+    <t>40B</t>
+  </si>
+  <si>
+    <t>83FA</t>
+  </si>
+  <si>
+    <t>LOOP 0x3FA</t>
   </si>
   <si>
     <r>
@@ -2050,7 +2055,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">AC: 0101 0011 1111 1011 (0x53FB</t>
+      <t>AC: 0101 0011 1111 1011 (0x53FB</t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2065,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">)</t>
+      <t>)</t>
     </r>
     <r>
       <rPr>
@@ -2081,17 +2086,17 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">3F9)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">: 0000 0100 0001 0001 (</t>
+      <t>3F9)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: 0000 0100 0001 0001 (</t>
     </r>
     <r>
       <rPr>
@@ -2101,7 +2106,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">0x410)</t>
+      <t>0x410)</t>
     </r>
     <r>
       <rPr>
@@ -2122,17 +2127,17 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">3FA)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">: 0000 0000 0000 0010 (0x2) 
+      <t>3FA)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: 0000 0000 0000 0010 (0x2) 
 r(0x</t>
     </r>
     <r>
@@ -2143,7 +2148,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">3FB)</t>
+      <t>3FB)</t>
     </r>
     <r>
       <rPr>
@@ -2176,7 +2181,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">AC: 0000 0000 0000 0000
+      <t>AC: 0000 0000 0000 0000
 m(0x</t>
     </r>
     <r>
@@ -2187,17 +2192,17 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">3F9)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">: 0000 0100 0000 1001 (</t>
+      <t>3F9)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: 0000 0100 0000 1001 (</t>
     </r>
     <r>
       <rPr>
@@ -2207,7 +2212,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">0x40F)</t>
+      <t>0x40F)</t>
     </r>
     <r>
       <rPr>
@@ -2228,17 +2233,17 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">3FA)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">: 0000 0000 0000 0001 (0x1) 
+      <t>3FA)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: 0000 0000 0000 0001 (0x1) 
 r(0x</t>
     </r>
     <r>
@@ -2249,7 +2254,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">3FB)</t>
+      <t>3FB)</t>
     </r>
     <r>
       <rPr>
@@ -2282,7 +2287,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">AC: 0100 0010 0000 0100 (0x</t>
+      <t>AC: 0100 0010 0000 0100 (0x</t>
     </r>
     <r>
       <rPr>
@@ -2292,17 +2297,17 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">4204</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">)
+      <t>4204</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)
 m(0x</t>
     </r>
     <r>
@@ -2313,17 +2318,17 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">3F9)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">: 0000 0100 0001 0001 (</t>
+      <t>3F9)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: 0000 0100 0001 0001 (</t>
     </r>
     <r>
       <rPr>
@@ -2333,7 +2338,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">0x40E)</t>
+      <t>0x40E)</t>
     </r>
     <r>
       <rPr>
@@ -2354,17 +2359,17 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">3FA)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">: 0000 0000 0000 0000 (0) 
+      <t>3FA)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: 0000 0000 0000 0000 (0) 
 r(0x</t>
     </r>
     <r>
@@ -2375,17 +2380,17 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">3FB)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">: 0000 0000 0000 0000 (0x7FFF)
+      <t>3FB)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: 0000 0000 0000 0000 (0x7FFF)
 DR — 1 → BR 
 0 — 1 → BR
 FFFF → BR
@@ -2394,70 +2399,66 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">40C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CEF7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JUMP (IP — 9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP — 9 → IP
+    <t>40C</t>
+  </si>
+  <si>
+    <t>CEF7</t>
+  </si>
+  <si>
+    <t>JUMP (IP — 9)</t>
+  </si>
+  <si>
+    <t>IP — 9 → IP
 404 → IP</t>
   </si>
   <si>
-    <t xml:space="preserve">40D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HLT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Останов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m[0]</t>
+    <t>40D</t>
+  </si>
+  <si>
+    <t>0100</t>
+  </si>
+  <si>
+    <t>HLT</t>
+  </si>
+  <si>
+    <t>Останов</t>
+  </si>
+  <si>
+    <t>40E</t>
+  </si>
+  <si>
+    <t>8409</t>
+  </si>
+  <si>
+    <t>m[0]</t>
   </si>
   <si>
     <t xml:space="preserve">Элемент массива </t>
   </si>
   <si>
-    <t xml:space="preserve">40F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m[1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53FB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m[2]</t>
+    <t>40F</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>m[1]</t>
+  </si>
+  <si>
+    <t>410</t>
+  </si>
+  <si>
+    <t>53FB</t>
+  </si>
+  <si>
+    <t>m[2]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2466,25 +2467,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="13"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2492,7 +2475,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="13"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -2500,7 +2483,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -2508,7 +2491,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2652,227 +2635,165 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="41">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -2931,60 +2852,76 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546a"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5b9bd5"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ed7d31"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffc000"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472c4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70ad47"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563c1"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954f72"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -3016,7 +2953,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -3040,7 +2977,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -3100,636 +3037,630 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="22.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="54.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="3" width="54.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="11.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="58.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="3" width="24.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="3" width="34.66"/>
+    <col min="1" max="1" width="10.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" style="5" customWidth="1"/>
+    <col min="5" max="6" width="54.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" customWidth="1"/>
+    <col min="9" max="9" width="58.83203125" customWidth="1"/>
+    <col min="11" max="13" width="24.6640625" customWidth="1"/>
+    <col min="14" max="14" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="true" ht="57.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:14" s="10" customFormat="1" ht="57.75" customHeight="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
-    <row r="2" customFormat="false" ht="57.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
+    <row r="2" spans="1:14" ht="57.75" customHeight="1">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="13"/>
+      <c r="G2"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="14"/>
     </row>
-    <row r="3" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:14" ht="90" customHeight="1">
+      <c r="A3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="13"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="20"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="14"/>
     </row>
-    <row r="4" customFormat="false" ht="57.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:14" ht="57.75" customHeight="1">
+      <c r="A4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="13"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="20"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="14"/>
     </row>
-    <row r="5" customFormat="false" ht="57.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:14" ht="57.75" customHeight="1">
+      <c r="A5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="13"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="20"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="14"/>
     </row>
-    <row r="6" customFormat="false" ht="57.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:14" ht="57.75" customHeight="1">
+      <c r="A6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="19"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="20"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
     </row>
-    <row r="7" customFormat="false" ht="57.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:14" ht="57.75" customHeight="1">
+      <c r="A7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="19"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="23"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="20"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="24"/>
     </row>
-    <row r="8" customFormat="false" ht="57.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:14" ht="57.75" customHeight="1">
+      <c r="A8" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="19"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="23"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="20"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="24"/>
     </row>
-    <row r="9" customFormat="false" ht="40.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:14" ht="51">
+      <c r="A9" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="19"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="23"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="20"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="24"/>
     </row>
-    <row r="10" customFormat="false" ht="53.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="s">
+    <row r="10" spans="1:14" ht="68">
+      <c r="A10" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="23"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="24"/>
     </row>
-    <row r="11" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="s">
+    <row r="11" spans="1:14" ht="51">
+      <c r="A11" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="K11" s="1"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="K11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="66.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="s">
+    <row r="12" spans="1:14" ht="85">
+      <c r="A12" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="27"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="28"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="82.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14" t="s">
+    <row r="13" spans="1:14" ht="102">
+      <c r="A13" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="16"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="30"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="17"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="31"/>
     </row>
-    <row r="14" customFormat="false" ht="80.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14" t="s">
+    <row r="14" spans="1:14" ht="102">
+      <c r="A14" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="31"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="30"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="32"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="31"/>
     </row>
-    <row r="15" customFormat="false" ht="143.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14" t="s">
+    <row r="15" spans="1:14" ht="187">
+      <c r="A15" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="18"/>
-      <c r="J15" s="32"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="19"/>
+      <c r="J15" s="33"/>
     </row>
-    <row r="16" customFormat="false" ht="116.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="s">
+    <row r="16" spans="1:14" ht="153">
+      <c r="A16" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="F16" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="32"/>
-      <c r="H16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="34"/>
     </row>
-    <row r="17" customFormat="false" ht="65.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14" t="s">
+    <row r="17" spans="1:9" ht="85">
+      <c r="A17" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G17" s="35"/>
-      <c r="H17" s="33"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="34"/>
     </row>
-    <row r="18" customFormat="false" ht="91.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14" t="s">
+    <row r="18" spans="1:9" ht="119">
+      <c r="A18" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="25" t="s">
+      <c r="D18" s="16"/>
+      <c r="E18" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="33"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="34"/>
     </row>
-    <row r="19" customFormat="false" ht="52.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14" t="s">
+    <row r="19" spans="1:9" ht="68">
+      <c r="A19" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="16" t="s">
+      <c r="D19" s="25"/>
+      <c r="E19" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="35" t="s">
+      <c r="F19" s="17"/>
+      <c r="G19" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="33"/>
+      <c r="H19" s="34"/>
     </row>
-    <row r="20" customFormat="false" ht="52.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14" t="s">
+    <row r="20" spans="1:9" ht="68">
+      <c r="A20" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="16" t="s">
+      <c r="D20" s="25"/>
+      <c r="E20" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="33"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="34"/>
     </row>
-    <row r="21" customFormat="false" ht="26.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14" t="s">
+    <row r="21" spans="1:9" ht="34">
+      <c r="A21" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="16" t="s">
+      <c r="D21" s="27"/>
+      <c r="E21" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="33"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="34"/>
     </row>
-    <row r="22" customFormat="false" ht="131.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14" t="s">
+    <row r="22" spans="1:9" ht="170">
+      <c r="A22" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="G22" s="35"/>
-      <c r="H22" s="33"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="34"/>
     </row>
-    <row r="23" customFormat="false" ht="26.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14" t="s">
+    <row r="23" spans="1:9" ht="34">
+      <c r="A23" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="F23" s="25"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14" t="s">
+    <row r="24" spans="1:9" ht="16">
+      <c r="A24" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="37" t="s">
+      <c r="D24" s="16"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
+      <c r="G24"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="14" t="s">
+    <row r="25" spans="1:9" ht="15" customHeight="1">
+      <c r="A25" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="D25" s="38" t="s">
+      <c r="D25" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="14" t="s">
+    <row r="26" spans="1:9" ht="15" customHeight="1">
+      <c r="A26" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="D26" s="38" t="s">
+      <c r="D26" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="14" t="s">
+    <row r="27" spans="1:9" ht="15" customHeight="1">
+      <c r="A27" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="D27" s="38" t="s">
+      <c r="D27" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:9">
       <c r="D28" s="39"/>
       <c r="E28" s="40"/>
       <c r="F28" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="E2:E14"/>
     <mergeCell ref="F2:F14"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>